--- a/biology/Médecine/Karl_Weigert/Karl_Weigert.xlsx
+++ b/biology/Médecine/Karl_Weigert/Karl_Weigert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Weigert, né le 19 mars 1845 à Münsterberg (arrondissement de Münsterberg, province de Silésie) et mort le 5 août 1904 à Francfort-sur-le-Main, est un pathologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille juive, fils d'un hôtelier, Karl Weigert fréquente à Breslau le prestigieux gymnasium Maria Magdalena (Maria-Magdalenen-Gymnasium) où il obtient son Abitur en 1862. Il fait ses études à l'Université de Berlin, à celle de Vienne, et à Breslau et obtient son diplôme en 1868. Il participe à la guerre franco-prussienne comme assistant chirurgien, puis s'installe à Breslau. Au cours des 2 années suivantes, il est l'assistant de Waldeyer; puis en 1874 de Lebert et enfin de Julius Cohnheim, qu'il suit à Leipzig en 1878. C'est dans cette ville que, dès l'année suivante, il commence à enseigner la pathologie à l'université. En 1884 il est nommé, sur proposition de Ludwig Edinger, professeur d'anatomie pathologique à l'Institut de recherche Senckenberg (Senkenbergsche Stiftung) de Francfort et se voit décerner le titre de Geheimer Medizinalrat (Expert général en médecine) en 1899.
 Karl Weigert a collaboré avec Cohnheim sur maints travaux de recherche. Il portait un intérêt tout particulier aux techniques de coloration des bactéries en microscopie et a éveillé celui de son cousin Paul Ehrlich, de 9 ans son cadet, pour les colorations histologiques. Il a été l'un des fondateurs de la neuropathologie et a compté parmi ses élèves les neurologues Wallenberg (à Leipzig), Marinescu et Van Gehuchten (à Francfort).
@@ -543,7 +557,9 @@
           <t>Principaux travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zur Anatomie der Pocken (À propos de l'anatomie de la variole) (Breslau, 1874)
 Färbung der Bacterien mit Anilinfarben (Coloration des bactéries par les couleurs d'aniline) (ib. 1875)
